--- a/api-hub-example/example.xlsx
+++ b/api-hub-example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areddy/Downloads/employee-management-service/api-hub-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC1823C-48D1-8C4E-A1CC-2A099F0EDE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC36BB-3F25-F14E-AB34-CEFF7E97162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,25 +183,30 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -211,6 +216,7 @@
       <sz val="12"/>
       <color rgb="FF242424"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
@@ -294,7 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -342,6 +347,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="API organization (organization)LockedColumnStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -706,44 +712,44 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="17" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="17" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -759,7 +765,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="J12" sqref="J12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -774,600 +780,600 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="17" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="17" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="17" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="17" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="17" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="17" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" ht="17" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="11" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" ht="17" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="11" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="28" t="s">
+      <c r="K24" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1395,150 +1401,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="25" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="17" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="17" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="17" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="17" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api-hub-example/example.xlsx
+++ b/api-hub-example/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areddy/Downloads/employee-management-service/api-hub-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC36BB-3F25-F14E-AB34-CEFF7E97162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC1D12-A239-AE42-BE1E-43E00583F2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API organization (organization)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Category</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>/employee</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -670,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -765,7 +768,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:O12"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -869,7 +872,9 @@
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="13"/>
@@ -889,7 +894,9 @@
       <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="13"/>
@@ -929,7 +936,9 @@
       <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
@@ -1010,7 +1019,9 @@
         <v>35</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="10" t="s">
@@ -1033,7 +1044,7 @@
       <c r="C13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1053,7 +1064,9 @@
       <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1073,7 +1086,9 @@
       <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1093,7 +1108,9 @@
       <c r="C16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1230,7 +1247,9 @@
         <v>38</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="10" t="s">
@@ -1259,7 +1278,7 @@
       <c r="C25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -1279,7 +1298,9 @@
       <c r="C26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1299,7 +1320,9 @@
       <c r="C27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>

--- a/api-hub-example/example.xlsx
+++ b/api-hub-example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areddy/Downloads/employee-management-service/api-hub-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC36BB-3F25-F14E-AB34-CEFF7E97162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D3D7D9-D4DE-274D-A61C-BE332A9D9E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -117,9 +117,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -169,6 +166,30 @@
   </si>
   <si>
     <t>/employee</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>line1</t>
+  </si>
+  <si>
+    <t>line2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>dto</t>
   </si>
 </sst>
 </file>
@@ -225,7 +246,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +277,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -280,6 +307,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -296,7 +351,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,6 +403,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="API organization (organization)LockedColumnStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -671,7 +742,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -765,7 +836,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:O12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -833,7 +904,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>25</v>
@@ -869,7 +940,9 @@
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="13"/>
@@ -887,9 +960,11 @@
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="13"/>
@@ -904,10 +979,10 @@
     <row r="6" spans="1:14" ht="17" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -923,12 +998,8 @@
     </row>
     <row r="7" spans="1:14" ht="17" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -1007,7 +1078,7 @@
     </row>
     <row r="12" spans="1:14" ht="17" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1051,9 +1122,11 @@
         <v>28</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1068,12 +1141,14 @@
     <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1088,12 +1163,14 @@
     <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1111,9 +1188,11 @@
         <v>30</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -1127,12 +1206,8 @@
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1227,7 +1302,7 @@
     </row>
     <row r="24" spans="1:14" ht="17" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -1243,7 +1318,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>25</v>
@@ -1279,7 +1354,9 @@
       <c r="C26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1294,12 +1371,14 @@
     <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -1383,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1433,16 +1512,16 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="4"/>
@@ -1452,10 +1531,10 @@
     <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="4"/>
@@ -1465,10 +1544,10 @@
     <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="4"/>
@@ -1478,10 +1557,10 @@
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="4"/>
@@ -1491,10 +1570,10 @@
     <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="4"/>
@@ -1511,40 +1590,105 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="25"/>
+      <c r="A9" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="26"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api-hub-example/example.xlsx
+++ b/api-hub-example/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areddy/Downloads/employee-management-service/api-hub-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC36BB-3F25-F14E-AB34-CEFF7E97162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A1FAC-F580-9E46-8CAD-5EE6E7AD699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API organization (organization)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>Category</t>
   </si>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>/employee</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Reusable address value object</t>
+  </si>
+  <si>
+    <t>line1</t>
+  </si>
+  <si>
+    <t>line2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>DTO</t>
   </si>
 </sst>
 </file>
@@ -257,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -280,6 +304,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -296,7 +348,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,6 +400,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="API organization (organization)LockedColumnStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -670,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -764,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -869,7 +930,9 @@
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="13"/>
@@ -887,9 +950,11 @@
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="13"/>
@@ -904,12 +969,14 @@
     <row r="6" spans="1:14" ht="17" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="13"/>
@@ -923,13 +990,9 @@
     </row>
     <row r="7" spans="1:14" ht="17" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
@@ -1010,7 +1073,9 @@
         <v>35</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="10" t="s">
@@ -1033,7 +1098,7 @@
       <c r="C13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1053,7 +1118,9 @@
       <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1073,7 +1140,9 @@
       <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1093,7 +1162,9 @@
       <c r="C16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1111,10 +1182,12 @@
         <v>30</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1127,12 +1200,8 @@
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1230,7 +1299,9 @@
         <v>38</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="10" t="s">
@@ -1259,7 +1330,7 @@
       <c r="C25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -1279,7 +1350,9 @@
       <c r="C26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1299,7 +1372,9 @@
       <c r="C27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -1383,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1520,31 +1595,125 @@
       <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="17" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:7" ht="16" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api-hub-example/example.xlsx
+++ b/api-hub-example/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areddy/Downloads/employee-management-service/api-hub-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D3D7D9-D4DE-274D-A61C-BE332A9D9E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D9D69-3E87-2141-8FBD-3241A713E307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -402,14 +402,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -419,6 +418,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="API organization (organization)LockedColumnStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -783,14 +783,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
     </row>
@@ -836,7 +836,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1081,7 +1081,9 @@
         <v>34</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="10" t="s">
@@ -1305,7 +1307,9 @@
         <v>37</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="10" t="s">
@@ -1590,17 +1594,17 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="5"/>
@@ -1631,64 +1635,64 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api-hub-example/example.xlsx
+++ b/api-hub-example/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areddy/Downloads/employee-management-service/api-hub-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EC36BB-3F25-F14E-AB34-CEFF7E97162E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A030BA51-1C3E-3042-8A2C-DC4FEB37840A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API organization (organization)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -117,9 +117,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -169,6 +166,30 @@
   </si>
   <si>
     <t>/employee</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>line1</t>
+  </si>
+  <si>
+    <t>line2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>dto</t>
   </si>
 </sst>
 </file>
@@ -257,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -280,6 +301,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -296,7 +345,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,6 +397,25 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="API organization (organization)LockedColumnStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -762,10 +830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -833,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>25</v>
@@ -869,7 +937,9 @@
       <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="13"/>
@@ -887,9 +957,11 @@
         <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="13"/>
@@ -904,10 +976,10 @@
     <row r="6" spans="1:14" ht="17" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -923,12 +995,6 @@
     </row>
     <row r="7" spans="1:14" ht="17" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -1007,10 +1073,12 @@
     </row>
     <row r="12" spans="1:14" ht="17" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="10" t="s">
@@ -1051,9 +1119,11 @@
         <v>28</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -1068,12 +1138,14 @@
     <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -1088,12 +1160,14 @@
     <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1111,9 +1185,11 @@
         <v>30</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -1127,12 +1203,8 @@
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -1227,10 +1299,12 @@
     </row>
     <row r="24" spans="1:14" ht="17" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="10" t="s">
@@ -1243,7 +1317,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>25</v>
@@ -1279,7 +1353,9 @@
       <c r="C26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1294,12 +1370,14 @@
     <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -1375,6 +1453,9 @@
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
     </row>
+    <row r="36" spans="3:3" ht="16" customHeight="1">
+      <c r="C36" s="29"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
@@ -1383,9 +1464,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1433,16 +1514,16 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="4"/>
@@ -1452,10 +1533,10 @@
     <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="4"/>
@@ -1465,10 +1546,10 @@
     <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="4"/>
@@ -1478,10 +1559,10 @@
     <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="4"/>
@@ -1491,10 +1572,10 @@
     <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="4"/>
@@ -1511,40 +1592,132 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="25"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="17" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" ht="16" customHeight="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" customHeight="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" ht="16" customHeight="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7" ht="16" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api-hub-example/example.xlsx
+++ b/api-hub-example/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/areddy/Downloads/employee-management-service/api-hub-example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A030BA51-1C3E-3042-8A2C-DC4FEB37840A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1D81F8-7E95-7646-893A-C4A72854E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API organization (organization)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
   <si>
     <t>Category</t>
   </si>
@@ -190,13 +190,19 @@
   </si>
   <si>
     <t>dto</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>/manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -245,8 +251,14 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +363,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -396,8 +414,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,6 +432,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="API organization (organization)LockedColumnStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -780,14 +802,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
     </row>
@@ -832,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1391,9 +1413,15 @@
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="16"/>
+      <c r="B28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -1409,7 +1437,7 @@
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -1422,39 +1450,123 @@
       <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
+      <c r="A30" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="36" spans="3:3" ht="16" customHeight="1">
-      <c r="C36" s="29"/>
+    <row r="32" spans="1:14" ht="16" customHeight="1">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:9" ht="16" customHeight="1">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" customHeight="1">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" customHeight="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" customHeight="1">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1592,132 +1704,132 @@
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="17" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" ht="17" customHeight="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="17" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" ht="17" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" ht="16" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7" ht="16" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:7" ht="16" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="16" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
